--- a/Result_5050.xlsx
+++ b/Result_5050.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Videos\Binary-Whale-Optimization-Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEF8DA8-1B68-40F0-98CA-F79E6FF5B6B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3595CB7-449D-48D7-A647-2E496060CB51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="3" r:id="rId2"/>
+    <sheet name="table" sheetId="1" r:id="rId1"/>
+    <sheet name="all for std" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -429,7 +429,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -495,58 +495,58 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.96857142857142797</v>
+        <v>0.97399999999999898</v>
       </c>
       <c r="C2">
-        <v>0.95508771929824499</v>
+        <v>0.94859649122806999</v>
       </c>
       <c r="D2">
-        <v>0.96238532110091701</v>
+        <v>0.971330275229357</v>
       </c>
       <c r="E2">
-        <v>0.7288</v>
+        <v>0.871</v>
       </c>
       <c r="F2">
-        <v>0.75860000000000005</v>
+        <v>0.75799999999999901</v>
       </c>
       <c r="G2">
-        <v>0.86</v>
+        <v>0.85666666666666602</v>
       </c>
       <c r="H2">
-        <v>0.89886363636363598</v>
+        <v>0.91249999999999898</v>
       </c>
       <c r="I2">
-        <v>0.97259073842302801</v>
+        <v>0.97334167709636998</v>
       </c>
       <c r="J2">
-        <v>0.86621621621621603</v>
+        <v>0.858108108108108</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="L2">
-        <v>0.85405405405405399</v>
+        <v>0.929729729729729</v>
       </c>
       <c r="M2">
-        <v>0.86346153846153795</v>
+        <v>0.875</v>
       </c>
       <c r="N2">
-        <v>0.851492537313432</v>
+        <v>0.86865671641790998</v>
       </c>
       <c r="O2">
-        <v>0.77202505219206596</v>
+        <v>0.78517745302713904</v>
       </c>
       <c r="P2">
-        <v>0.97</v>
+        <v>0.960666666666666</v>
       </c>
       <c r="Q2">
-        <v>0.83511999999999997</v>
+        <v>0.83864000000000005</v>
       </c>
       <c r="R2">
-        <v>0.98539325842696601</v>
+        <v>0.96123595505617998</v>
       </c>
       <c r="S2">
-        <v>0.96666666666666601</v>
+        <v>0.95588235294117596</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -554,55 +554,55 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0.45555555555555499</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="C3">
-        <v>0.109999999999999</v>
+        <v>0.11333333333333299</v>
       </c>
       <c r="D3">
-        <v>0.29375000000000001</v>
+        <v>0.28437499999999999</v>
       </c>
       <c r="E3">
         <v>0.33846153846153798</v>
       </c>
       <c r="F3">
-        <v>0.107692307692307</v>
+        <v>7.69230769230769E-2</v>
       </c>
       <c r="G3">
-        <v>0.32307692307692298</v>
+        <v>0.31923076923076898</v>
       </c>
       <c r="H3">
-        <v>0.120588235294117</v>
+        <v>0.16617647058823501</v>
       </c>
       <c r="I3">
-        <v>0.44722222222222202</v>
+        <v>0.45694444444444399</v>
       </c>
       <c r="J3">
-        <v>0.22222222222222199</v>
+        <v>0.34722222222222199</v>
       </c>
       <c r="K3">
         <v>0.46153846153846101</v>
       </c>
       <c r="L3">
-        <v>0.23507692307692299</v>
+        <v>0.23107692307692301</v>
       </c>
       <c r="M3">
-        <v>0.28999999999999998</v>
+        <v>0.30666666666666598</v>
       </c>
       <c r="N3">
-        <v>0.34090909090909</v>
+        <v>0.37727272727272698</v>
       </c>
       <c r="O3">
-        <v>0.7</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="P3">
-        <v>0.20624999999999999</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="Q3">
-        <v>0.51749999999999996</v>
+        <v>0.526249999999999</v>
       </c>
       <c r="R3">
-        <v>0.43076923076923002</v>
+        <v>0.34615384615384598</v>
       </c>
       <c r="S3">
         <v>0.375</v>
@@ -613,58 +613,58 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>5.0813784360885599</v>
+        <v>6.8566657662391597</v>
       </c>
       <c r="C4">
-        <v>4.15342679023742</v>
+        <v>6.1392190217971798</v>
       </c>
       <c r="D4">
-        <v>3.1457779645919799</v>
+        <v>4.5977296590804997</v>
       </c>
       <c r="E4">
-        <v>6.8275682210922204</v>
+        <v>10.559254753589601</v>
       </c>
       <c r="F4">
-        <v>6.2083480358123699</v>
+        <v>9.3818237185478193</v>
       </c>
       <c r="G4">
-        <v>2.1602524280547999</v>
+        <v>3.08674031496047</v>
       </c>
       <c r="H4">
-        <v>2.9043322563171299</v>
+        <v>4.1664229631423897</v>
       </c>
       <c r="I4">
-        <v>36.557240319252003</v>
+        <v>54.9327235698699</v>
       </c>
       <c r="J4">
-        <v>1.44929234981536</v>
+        <v>2.0856066823005599</v>
       </c>
       <c r="K4">
-        <v>7.4433014392852703</v>
+        <v>9.9932579636573795</v>
       </c>
       <c r="L4">
-        <v>3.07084562778472</v>
+        <v>4.2147841095924301</v>
       </c>
       <c r="M4">
-        <v>2.3021599054336499</v>
+        <v>3.29353839159011</v>
       </c>
       <c r="N4">
-        <v>2.3736012458801201</v>
+        <v>3.4128240108489898</v>
       </c>
       <c r="O4">
-        <v>6.6593569517135602</v>
+        <v>9.5634547710418705</v>
       </c>
       <c r="P4">
-        <v>2.2637146711349398</v>
+        <v>3.3192045211791901</v>
       </c>
       <c r="Q4">
-        <v>105.22049851417501</v>
+        <v>152.968705415725</v>
       </c>
       <c r="R4">
-        <v>1.7245419502258299</v>
+        <v>2.2744895935058498</v>
       </c>
       <c r="S4">
-        <v>1.33365349769592</v>
+        <v>1.56357899904251</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -672,58 +672,58 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>3.5669841269841303E-2</v>
+        <v>3.1406666666666597E-2</v>
       </c>
       <c r="C5">
-        <v>4.5563157894736799E-2</v>
+        <v>5.2022807017543797E-2</v>
       </c>
       <c r="D5">
-        <v>4.01135321100917E-2</v>
+        <v>3.1226777522935699E-2</v>
       </c>
       <c r="E5">
-        <v>0.27187261538461499</v>
+        <v>0.131094615384615</v>
       </c>
       <c r="F5">
-        <v>0.24006292307692301</v>
+        <v>0.24034923076923001</v>
       </c>
       <c r="G5">
-        <v>0.14183076923076901</v>
+        <v>0.14509230769230699</v>
       </c>
       <c r="H5">
-        <v>0.10133088235294101</v>
+        <v>8.7709558823529404E-2</v>
       </c>
       <c r="I5">
-        <v>3.14215338617716E-2</v>
+        <v>3.0823390349047401E-2</v>
       </c>
       <c r="J5">
-        <v>0.13466816816816801</v>
+        <v>0.143304054054054</v>
       </c>
       <c r="K5">
-        <v>4.6153846153846097E-3</v>
+        <v>6.1993846153846101E-3</v>
       </c>
       <c r="L5">
-        <v>0.125604158004157</v>
+        <v>6.9076507276507201E-2</v>
       </c>
       <c r="M5">
-        <v>0.13710448717948701</v>
+        <v>0.12536378205128201</v>
       </c>
       <c r="N5">
-        <v>0.150431478968792</v>
+        <v>0.13347862957937501</v>
       </c>
       <c r="O5">
-        <v>0.232695198329853</v>
+        <v>0.21861876594757501</v>
       </c>
       <c r="P5">
-        <v>3.1762499999999902E-2</v>
+        <v>4.1377499999999998E-2</v>
       </c>
       <c r="Q5">
-        <v>0.166782599999999</v>
+        <v>0.16463269999999999</v>
       </c>
       <c r="R5">
-        <v>1.87683664649957E-2</v>
+        <v>4.1837942955920499E-2</v>
       </c>
       <c r="S5">
-        <v>3.6749999999999998E-2</v>
+        <v>4.7426470588235202E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -731,10 +731,10 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>3.6669841269841297E-2</v>
+        <v>4.2326984126984102E-2</v>
       </c>
       <c r="C6">
-        <v>6.6666666666666596E-2</v>
+        <v>8.7842105263157902E-2</v>
       </c>
       <c r="D6">
         <v>4.8537844036697197E-2</v>
@@ -746,43 +746,43 @@
         <v>0.24034923076923001</v>
       </c>
       <c r="G6">
-        <v>0.15051282051282</v>
+        <v>0.178307692307692</v>
       </c>
       <c r="H6">
-        <v>0.125220588235294</v>
+        <v>0.119301470588235</v>
       </c>
       <c r="I6">
-        <v>4.7661312752051203E-2</v>
+        <v>4.0590668891670102E-2</v>
       </c>
       <c r="J6">
-        <v>0.177252252252252</v>
+        <v>0.21849849849849801</v>
       </c>
       <c r="K6">
-        <v>4.6153846153846097E-3</v>
+        <v>1.8475384615384598E-2</v>
       </c>
       <c r="L6">
-        <v>0.16334054054054001</v>
+        <v>0.13550686070685999</v>
       </c>
       <c r="M6">
-        <v>0.156141025641025</v>
+        <v>0.193551282051282</v>
       </c>
       <c r="N6">
-        <v>0.16571913161465401</v>
+        <v>0.15969470827679699</v>
       </c>
       <c r="O6">
-        <v>0.24323822778937501</v>
+        <v>0.24117142194386401</v>
       </c>
       <c r="P6">
-        <v>3.4874999999999899E-2</v>
+        <v>8.7675000000000003E-2</v>
       </c>
       <c r="Q6">
-        <v>0.172653999999999</v>
+        <v>0.174591999999999</v>
       </c>
       <c r="R6">
-        <v>3.7216940363007697E-2</v>
+        <v>7.0587726879861701E-2</v>
       </c>
       <c r="S6">
-        <v>6.0735294117646998E-2</v>
+        <v>9.95588235294117E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -790,58 +790,58 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <v>3.5558730158730199E-2</v>
+        <v>1.9698412698412601E-2</v>
       </c>
       <c r="C7">
-        <v>3.2929824561403399E-2</v>
+        <v>3.6070175438596398E-2</v>
       </c>
       <c r="D7">
-        <v>3.42889908256881E-2</v>
+        <v>1.6748853211009201E-2</v>
       </c>
       <c r="E7">
-        <v>1.2535384615384599E-2</v>
+        <v>4.6153846153846097E-3</v>
       </c>
       <c r="F7">
-        <v>0.23748615384615299</v>
+        <v>0.24034923076923001</v>
       </c>
       <c r="G7">
-        <v>0.13584615384615301</v>
+        <v>0.119641025641025</v>
       </c>
       <c r="H7">
-        <v>9.0588235294117594E-2</v>
+        <v>5.8014705882352802E-2</v>
       </c>
       <c r="I7">
-        <v>2.4119385342789599E-2</v>
+        <v>2.4952718676122899E-2</v>
       </c>
       <c r="J7">
-        <v>0.122072072072072</v>
+        <v>0.11036036036036</v>
       </c>
       <c r="K7">
         <v>4.6153846153846097E-3</v>
       </c>
       <c r="L7">
-        <v>8.2239501039500895E-2</v>
+        <v>2.93106029106028E-2</v>
       </c>
       <c r="M7">
-        <v>0.11589743589743499</v>
+        <v>7.9153846153846102E-2</v>
       </c>
       <c r="N7">
-        <v>0.13662143826322901</v>
+        <v>0.114457259158751</v>
       </c>
       <c r="O7">
-        <v>0.22908141962421699</v>
+        <v>0.197768499188123</v>
       </c>
       <c r="P7">
-        <v>2.8899999999999901E-2</v>
+        <v>1.5074999999999899E-2</v>
       </c>
       <c r="Q7">
-        <v>0.161273999999999</v>
+        <v>0.154583999999999</v>
       </c>
       <c r="R7">
-        <v>6.1538461538461504E-3</v>
+        <v>2.3076923076923001E-3</v>
       </c>
       <c r="S7">
-        <v>2.3161764705882298E-2</v>
+        <v>2.2536764705882301E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -849,58 +849,58 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>3.33333333333333E-4</v>
+        <v>5.8331363232037798E-3</v>
       </c>
       <c r="C8">
-        <v>1.18530747115235E-2</v>
+        <v>1.11768639097689E-2</v>
       </c>
       <c r="D8">
-        <v>4.66840797434173E-3</v>
+        <v>8.7143546682759906E-3</v>
       </c>
       <c r="E8">
-        <v>8.7052597210472399E-2</v>
-      </c>
-      <c r="F8">
-        <v>8.5892307692307299E-4</v>
+        <v>0.145092516906042</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.38777878078144E-16</v>
       </c>
       <c r="G8">
-        <v>3.8608301185717401E-3</v>
+        <v>1.9145761517615701E-2</v>
       </c>
       <c r="H8">
-        <v>1.02581277379734E-2</v>
+        <v>1.7398390055848999E-2</v>
       </c>
       <c r="I8">
-        <v>6.2684777162639897E-3</v>
+        <v>4.1727551268599698E-3</v>
       </c>
       <c r="J8">
-        <v>1.80849151642699E-2</v>
+        <v>2.4631328042300799E-2</v>
       </c>
       <c r="K8" s="1">
-        <v>8.6736173798840297E-19</v>
+        <v>3.89008277546892E-3</v>
       </c>
       <c r="L8">
-        <v>2.4647418401433301E-2</v>
+        <v>2.4605930652774399E-2</v>
       </c>
       <c r="M8">
-        <v>1.5920902616423101E-2</v>
+        <v>3.1417386545189899E-2</v>
       </c>
       <c r="N8">
-        <v>9.2095911451300604E-3</v>
+        <v>1.2497649198374801E-2</v>
       </c>
       <c r="O8">
-        <v>4.6576727675411503E-3</v>
+        <v>1.4625086670717401E-2</v>
       </c>
       <c r="P8">
-        <v>2.6274096083405201E-3</v>
+        <v>1.6325051493027501E-2</v>
       </c>
       <c r="Q8">
-        <v>3.1868509911823499E-3</v>
+        <v>5.1296214002594697E-3</v>
       </c>
       <c r="R8">
-        <v>1.00161549307171E-2</v>
+        <v>2.13799422576238E-2</v>
       </c>
       <c r="S8">
-        <v>1.46890455087618E-2</v>
+        <v>2.1430831064437401E-2</v>
       </c>
     </row>
   </sheetData>
@@ -911,10 +911,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCE2AEC-273A-44E9-8AA1-D25215D63B1D}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -980,58 +980,58 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.6669841269841297E-2</v>
+        <v>3.5558730158730199E-2</v>
       </c>
       <c r="C2">
-        <v>4.6157894736842099E-2</v>
+        <v>3.6070175438596398E-2</v>
       </c>
       <c r="D2">
-        <v>3.42889908256881E-2</v>
+        <v>4.3371559633027502E-2</v>
       </c>
       <c r="E2">
-        <v>0.30964923076923001</v>
+        <v>4.6153846153846097E-3</v>
       </c>
       <c r="F2">
         <v>0.24034923076923001</v>
       </c>
       <c r="G2">
-        <v>0.13584615384615301</v>
+        <v>0.120410256410256</v>
       </c>
       <c r="H2">
-        <v>0.10213235294117599</v>
+        <v>0.11485294117647001</v>
       </c>
       <c r="I2">
-        <v>4.7661312752051203E-2</v>
+        <v>2.8947642886941901E-2</v>
       </c>
       <c r="J2">
-        <v>0.122072072072072</v>
+        <v>0.137672672672672</v>
       </c>
       <c r="K2">
         <v>4.6153846153846097E-3</v>
       </c>
       <c r="L2">
-        <v>8.2731808731808604E-2</v>
+        <v>2.93106029106028E-2</v>
       </c>
       <c r="M2">
-        <v>0.12675</v>
+        <v>0.12658333333333299</v>
       </c>
       <c r="N2">
-        <v>0.14310040705563001</v>
+        <v>0.120936227951153</v>
       </c>
       <c r="O2">
-        <v>0.22908141962421699</v>
+        <v>0.22670378102528399</v>
       </c>
       <c r="P2">
-        <v>3.4249999999999899E-2</v>
+        <v>5.4675000000000001E-2</v>
       </c>
       <c r="Q2">
-        <v>0.16373399999999899</v>
+        <v>0.16692199999999899</v>
       </c>
       <c r="R2">
-        <v>2.45548833189283E-2</v>
+        <v>4.6802074330164201E-2</v>
       </c>
       <c r="S2">
-        <v>4.3198529411764601E-2</v>
+        <v>4.25735294117646E-2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1039,58 +1039,58 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.5558730158730199E-2</v>
+        <v>3.6063492063491999E-2</v>
       </c>
       <c r="C3">
-        <v>4.6157894736842099E-2</v>
+        <v>4.6824561403508699E-2</v>
       </c>
       <c r="D3">
-        <v>3.82052752293578E-2</v>
+        <v>3.1622706422018199E-2</v>
       </c>
       <c r="E3">
         <v>0.30964923076923001</v>
       </c>
       <c r="F3">
-        <v>0.23748615384615299</v>
+        <v>0.24034923076923001</v>
       </c>
       <c r="G3">
-        <v>0.14241025641025601</v>
+        <v>0.178307692307692</v>
       </c>
       <c r="H3">
-        <v>9.0588235294117594E-2</v>
+        <v>5.8014705882352802E-2</v>
       </c>
       <c r="I3">
-        <v>2.4119385342789599E-2</v>
+        <v>3.18533583646224E-2</v>
       </c>
       <c r="J3">
-        <v>0.122072072072072</v>
+        <v>0.16220720720720699</v>
       </c>
       <c r="K3">
-        <v>4.6153846153846097E-3</v>
+        <v>1.2535384615384599E-2</v>
       </c>
       <c r="L3">
-        <v>0.13710686070686001</v>
+        <v>5.5513513513513503E-2</v>
       </c>
       <c r="M3">
-        <v>0.12691666666666601</v>
+        <v>0.13476923076923</v>
       </c>
       <c r="N3">
-        <v>0.151852103120759</v>
+        <v>0.12275440976933499</v>
       </c>
       <c r="O3">
-        <v>0.24323822778937501</v>
+        <v>0.202212943632567</v>
       </c>
       <c r="P3">
         <v>3.4874999999999899E-2</v>
       </c>
       <c r="Q3">
-        <v>0.16706799999999999</v>
+        <v>0.174591999999999</v>
       </c>
       <c r="R3">
-        <v>2.6862575626620599E-2</v>
+        <v>2.3076923076923001E-3</v>
       </c>
       <c r="S3">
-        <v>4.3198529411764601E-2</v>
+        <v>2.44117647058823E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1098,16 +1098,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.5558730158730199E-2</v>
+        <v>4.2326984126984102E-2</v>
       </c>
       <c r="C4">
-        <v>3.5736842105263102E-2</v>
+        <v>4.6157894736842099E-2</v>
       </c>
       <c r="D4">
-        <v>4.3371559633027502E-2</v>
+        <v>4.2746559633027502E-2</v>
       </c>
       <c r="E4">
-        <v>0.30964923076923001</v>
+        <v>2.0455384615384601E-2</v>
       </c>
       <c r="F4">
         <v>0.24034923076923001</v>
@@ -1116,40 +1116,40 @@
         <v>0.14241025641025601</v>
       </c>
       <c r="H4">
-        <v>9.7095588235294003E-2</v>
+        <v>9.1764705882352901E-2</v>
       </c>
       <c r="I4">
-        <v>2.57860520094562E-2</v>
+        <v>2.8947642886941901E-2</v>
       </c>
       <c r="J4">
-        <v>0.122072072072072</v>
+        <v>0.15049549549549501</v>
       </c>
       <c r="K4">
         <v>4.6153846153846097E-3</v>
       </c>
       <c r="L4">
-        <v>0.16334054054054001</v>
+        <v>5.5021205821205801E-2</v>
       </c>
       <c r="M4">
-        <v>0.13626923076923</v>
+        <v>9.8358974358974297E-2</v>
       </c>
       <c r="N4">
-        <v>0.15969470827679699</v>
+        <v>0.151852103120759</v>
       </c>
       <c r="O4">
-        <v>0.229881697981906</v>
+        <v>0.197768499188123</v>
       </c>
       <c r="P4">
-        <v>3.4249999999999899E-2</v>
+        <v>3.6749999999999901E-2</v>
       </c>
       <c r="Q4">
-        <v>0.16677599999999901</v>
+        <v>0.16652599999999901</v>
       </c>
       <c r="R4">
-        <v>6.1538461538461504E-3</v>
+        <v>5.8694900605012902E-2</v>
       </c>
       <c r="S4">
-        <v>4.25735294117646E-2</v>
+        <v>2.44117647058823E-2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1157,58 +1157,58 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.5558730158730199E-2</v>
+        <v>2.5355555555555499E-2</v>
       </c>
       <c r="C5">
-        <v>6.6666666666666596E-2</v>
+        <v>4.6491228070175403E-2</v>
       </c>
       <c r="D5">
-        <v>4.3371559633027502E-2</v>
+        <v>2.5206422018348499E-2</v>
       </c>
       <c r="E5">
-        <v>0.30326769230769202</v>
+        <v>0.30722769230769198</v>
       </c>
       <c r="F5">
         <v>0.24034923076923001</v>
       </c>
       <c r="G5">
-        <v>0.14241025641025601</v>
+        <v>0.17251282051281999</v>
       </c>
       <c r="H5">
-        <v>0.108639705882352</v>
+        <v>9.3235294117647E-2</v>
       </c>
       <c r="I5">
-        <v>2.6897163120567402E-2</v>
+        <v>2.8328118481435099E-2</v>
       </c>
       <c r="J5">
-        <v>0.14938438438438401</v>
+        <v>0.13711711711711699</v>
       </c>
       <c r="K5">
         <v>4.6153846153846097E-3</v>
       </c>
       <c r="L5">
-        <v>0.110011642411642</v>
+        <v>8.14395010395009E-2</v>
       </c>
       <c r="M5">
-        <v>0.155641025641025</v>
+        <v>0.14528846153846101</v>
       </c>
       <c r="N5">
-        <v>0.15878561736770599</v>
+        <v>0.12229986431478899</v>
       </c>
       <c r="O5">
-        <v>0.231948503827418</v>
+        <v>0.199835305033634</v>
       </c>
       <c r="P5">
-        <v>3.4249999999999899E-2</v>
+        <v>1.5074999999999899E-2</v>
       </c>
       <c r="Q5">
-        <v>0.172653999999999</v>
+        <v>0.16206599999999999</v>
       </c>
       <c r="R5">
         <v>1.49697493517718E-2</v>
       </c>
       <c r="S5">
-        <v>6.0735294117646998E-2</v>
+        <v>4.25735294117646E-2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1216,58 +1216,58 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.5558730158730199E-2</v>
+        <v>3.1012698412698301E-2</v>
       </c>
       <c r="C6">
-        <v>4.6491228070175403E-2</v>
+        <v>4.5824561403508803E-2</v>
       </c>
       <c r="D6">
-        <v>4.8537844036697197E-2</v>
+        <v>4.3371559633027502E-2</v>
       </c>
       <c r="E6">
-        <v>0.29600307692307698</v>
+        <v>4.6153846153846097E-3</v>
       </c>
       <c r="F6">
         <v>0.24034923076923001</v>
       </c>
       <c r="G6">
-        <v>0.14164102564102499</v>
+        <v>0.12697435897435799</v>
       </c>
       <c r="H6">
-        <v>9.0882352941176497E-2</v>
+        <v>6.9852941176470604E-2</v>
       </c>
       <c r="I6">
-        <v>2.8456056181337699E-2</v>
+        <v>2.7772562925879599E-2</v>
       </c>
       <c r="J6">
-        <v>0.13600600600600499</v>
+        <v>0.11036036036036</v>
       </c>
       <c r="K6">
         <v>4.6153846153846097E-3</v>
       </c>
       <c r="L6">
-        <v>0.135568399168399</v>
+        <v>5.7513513513513498E-2</v>
       </c>
       <c r="M6">
-        <v>0.12641666666666601</v>
+        <v>0.193551282051282</v>
       </c>
       <c r="N6">
-        <v>0.15833107191316101</v>
+        <v>0.14491858887381201</v>
       </c>
       <c r="O6">
-        <v>0.231948503827418</v>
+        <v>0.23497100440732999</v>
       </c>
       <c r="P6">
-        <v>2.9524999999999899E-2</v>
+        <v>2.5425E-2</v>
       </c>
       <c r="Q6">
-        <v>0.167901999999999</v>
+        <v>0.16300399999999901</v>
       </c>
       <c r="R6">
-        <v>6.1538461538461504E-3</v>
+        <v>5.8694900605012902E-2</v>
       </c>
       <c r="S6">
-        <v>2.3786764705882299E-2</v>
+        <v>4.25735294117646E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1275,58 +1275,58 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.5558730158730199E-2</v>
+        <v>2.99015873015872E-2</v>
       </c>
       <c r="C7">
-        <v>4.6157894736842099E-2</v>
+        <v>4.9631578947368402E-2</v>
       </c>
       <c r="D7">
-        <v>3.42889908256881E-2</v>
+        <v>2.4581422018348599E-2</v>
       </c>
       <c r="E7">
-        <v>0.28687230769230698</v>
+        <v>3.6295384615384597E-2</v>
       </c>
       <c r="F7">
         <v>0.24034923076923001</v>
       </c>
       <c r="G7">
-        <v>0.15051282051282</v>
+        <v>0.171743589743589</v>
       </c>
       <c r="H7">
-        <v>0.125220588235294</v>
+        <v>6.8676470588235297E-2</v>
       </c>
       <c r="I7">
-        <v>3.0464469475733499E-2</v>
+        <v>3.36260603532193E-2</v>
       </c>
       <c r="J7">
-        <v>0.122072072072072</v>
+        <v>0.124849849849849</v>
       </c>
       <c r="K7">
         <v>4.6153846153846097E-3</v>
       </c>
       <c r="L7">
-        <v>0.13593762993762901</v>
+        <v>8.2639501039500907E-2</v>
       </c>
       <c r="M7">
-        <v>0.116897435897435</v>
+        <v>8.9839743589743601E-2</v>
       </c>
       <c r="N7">
-        <v>0.16571913161465401</v>
+        <v>0.14491858887381201</v>
       </c>
       <c r="O7">
-        <v>0.240060310832753</v>
+        <v>0.22877058687079499</v>
       </c>
       <c r="P7">
-        <v>3.4249999999999899E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="Q7">
-        <v>0.17102800000000001</v>
+        <v>0.167798</v>
       </c>
       <c r="R7">
-        <v>3.7216940363007697E-2</v>
+        <v>1.57389801210026E-2</v>
       </c>
       <c r="S7">
-        <v>2.3161764705882298E-2</v>
+        <v>6.1985294117647E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1334,58 +1334,58 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.5558730158730199E-2</v>
+        <v>1.9698412698412601E-2</v>
       </c>
       <c r="C8">
-        <v>3.2929824561403399E-2</v>
+        <v>5.72456140350876E-2</v>
       </c>
       <c r="D8">
-        <v>3.9455275229357802E-2</v>
+        <v>4.8537844036697197E-2</v>
       </c>
       <c r="E8">
-        <v>0.30601692307692302</v>
+        <v>4.6153846153846097E-3</v>
       </c>
       <c r="F8">
         <v>0.24034923076923001</v>
       </c>
       <c r="G8">
-        <v>0.13584615384615301</v>
+        <v>0.120410256410256</v>
       </c>
       <c r="H8">
-        <v>0.10213235294117599</v>
+        <v>0.11455882352941101</v>
       </c>
       <c r="I8">
-        <v>3.3284313725490199E-2</v>
+        <v>2.7708594075928201E-2</v>
       </c>
       <c r="J8">
-        <v>0.15160660660660599</v>
+        <v>0.12429429429429401</v>
       </c>
       <c r="K8">
         <v>4.6153846153846097E-3</v>
       </c>
       <c r="L8">
-        <v>0.13513762993762901</v>
+        <v>5.4898128898128902E-2</v>
       </c>
       <c r="M8">
-        <v>0.156141025641025</v>
+        <v>0.116897435897435</v>
       </c>
       <c r="N8">
-        <v>0.144464043419267</v>
+        <v>0.114457259158751</v>
       </c>
       <c r="O8">
-        <v>0.22908141962421699</v>
+        <v>0.21732544653212699</v>
       </c>
       <c r="P8">
-        <v>2.8899999999999901E-2</v>
+        <v>4.1474999999999998E-2</v>
       </c>
       <c r="Q8">
-        <v>0.164796</v>
+        <v>0.15854399999999899</v>
       </c>
       <c r="R8">
-        <v>6.1538461538461504E-3</v>
+        <v>4.6802074330164201E-2</v>
       </c>
       <c r="S8">
-        <v>6.0735294117646998E-2</v>
+        <v>2.3161764705882298E-2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1393,58 +1393,58 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.5558730158730199E-2</v>
+        <v>2.92952380952381E-2</v>
       </c>
       <c r="C9">
-        <v>3.5736842105263102E-2</v>
+        <v>4.9964912280701698E-2</v>
       </c>
       <c r="D9">
-        <v>3.9455275229357802E-2</v>
+        <v>2.4581422018348599E-2</v>
       </c>
       <c r="E9">
-        <v>0.277855384615384</v>
+        <v>4.6153846153846097E-3</v>
       </c>
       <c r="F9">
         <v>0.24034923076923001</v>
       </c>
       <c r="G9">
-        <v>0.14241025641025601</v>
+        <v>0.121179487179487</v>
       </c>
       <c r="H9">
-        <v>9.7389705882352906E-2</v>
+        <v>9.1764705882352901E-2</v>
       </c>
       <c r="I9">
-        <v>3.0528438325684901E-2</v>
+        <v>2.7580656376025501E-2</v>
       </c>
       <c r="J9">
-        <v>0.122072072072072</v>
+        <v>0.123738738738738</v>
       </c>
       <c r="K9">
         <v>4.6153846153846097E-3</v>
       </c>
       <c r="L9">
-        <v>0.13627609147609099</v>
+        <v>5.5482744282744197E-2</v>
       </c>
       <c r="M9">
-        <v>0.15530769230769201</v>
+        <v>0.107711538461538</v>
       </c>
       <c r="N9">
-        <v>0.142645861601085</v>
+        <v>0.13662143826322901</v>
       </c>
       <c r="O9">
-        <v>0.231948503827418</v>
+        <v>0.21843655764323799</v>
       </c>
       <c r="P9">
-        <v>2.8899999999999901E-2</v>
+        <v>8.7675000000000003E-2</v>
       </c>
       <c r="Q9">
-        <v>0.167651999999999</v>
+        <v>0.154583999999999</v>
       </c>
       <c r="R9">
-        <v>1.6508210890233299E-2</v>
+        <v>4.7571305099394903E-2</v>
       </c>
       <c r="S9">
-        <v>2.3786764705882299E-2</v>
+        <v>4.19485294117646E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1452,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.5558730158730199E-2</v>
+        <v>3.3841269841269797E-2</v>
       </c>
       <c r="C10">
-        <v>3.2929824561403399E-2</v>
+        <v>4.6157894736842099E-2</v>
       </c>
       <c r="D10">
-        <v>3.49139908256881E-2</v>
+        <v>2.91227064220182E-2</v>
       </c>
       <c r="E10">
         <v>0.30722769230769198</v>
@@ -1467,43 +1467,43 @@
         <v>0.24034923076923001</v>
       </c>
       <c r="G10">
-        <v>0.14241025641025601</v>
+        <v>0.157846153846153</v>
       </c>
       <c r="H10">
-        <v>9.0588235294117594E-2</v>
+        <v>9.6801470588235197E-2</v>
       </c>
       <c r="I10">
-        <v>3.2814629397858397E-2</v>
+        <v>3.1639549436795998E-2</v>
       </c>
       <c r="J10">
-        <v>0.122072072072072</v>
+        <v>0.21849849849849801</v>
       </c>
       <c r="K10">
         <v>4.6153846153846097E-3</v>
       </c>
       <c r="L10">
-        <v>8.2239501039500895E-2</v>
+        <v>0.10955010395010301</v>
       </c>
       <c r="M10">
-        <v>0.15480769230769201</v>
+        <v>9.7858974358974296E-2</v>
       </c>
       <c r="N10">
-        <v>0.13662143826322901</v>
+        <v>0.142645861601085</v>
       </c>
       <c r="O10">
-        <v>0.229881697981906</v>
+        <v>0.24117142194386401</v>
       </c>
       <c r="P10">
-        <v>2.8899999999999901E-2</v>
+        <v>3.6124999999999997E-2</v>
       </c>
       <c r="Q10">
-        <v>0.161273999999999</v>
+        <v>0.16702599999999901</v>
       </c>
       <c r="R10">
-        <v>2.45548833189283E-2</v>
+        <v>4.9878997407087199E-2</v>
       </c>
       <c r="S10">
-        <v>2.3161764705882298E-2</v>
+        <v>2.2536764705882301E-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1511,58 +1511,648 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.5558730158730199E-2</v>
+        <v>2.99015873015872E-2</v>
       </c>
       <c r="C11">
-        <v>6.6666666666666596E-2</v>
+        <v>5.0631578947368402E-2</v>
       </c>
       <c r="D11">
-        <v>4.5246559633027497E-2</v>
+        <v>1.6748853211009201E-2</v>
       </c>
       <c r="E11">
-        <v>1.2535384615384599E-2</v>
+        <v>4.6153846153846097E-3</v>
       </c>
       <c r="F11">
         <v>0.24034923076923001</v>
       </c>
       <c r="G11">
-        <v>0.14241025641025601</v>
+        <v>0.15630769230769201</v>
       </c>
       <c r="H11">
-        <v>0.108639705882352</v>
+        <v>6.8970588235294103E-2</v>
       </c>
       <c r="I11">
-        <v>3.4203518286747302E-2</v>
+        <v>3.5014949242108198E-2</v>
       </c>
       <c r="J11">
-        <v>0.177252252252252</v>
+        <v>0.13656156156156099</v>
       </c>
       <c r="K11">
         <v>4.6153846153846097E-3</v>
       </c>
       <c r="L11">
-        <v>0.137691476091476</v>
+        <v>8.2177962577962504E-2</v>
       </c>
       <c r="M11">
-        <v>0.11589743589743499</v>
+        <v>7.9153846153846102E-2</v>
       </c>
       <c r="N11">
+        <v>0.15969470827679699</v>
+      </c>
+      <c r="O11">
+        <v>0.198724193922523</v>
+      </c>
+      <c r="P11">
+        <v>3.4874999999999899E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0.174238</v>
+      </c>
+      <c r="R11">
+        <v>3.07692307692307E-3</v>
+      </c>
+      <c r="S11">
+        <v>2.50367647058823E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3.6669841269841297E-2</v>
+      </c>
+      <c r="C12">
+        <v>5.6578947368421E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.00401376146788E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.30964923076923001</v>
+      </c>
+      <c r="F12">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G12">
+        <v>0.16364102564102501</v>
+      </c>
+      <c r="H12">
+        <v>0.10272058823529399</v>
+      </c>
+      <c r="I12">
+        <v>3.4459393686552597E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.11036036036036</v>
+      </c>
+      <c r="K12">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L12">
+        <v>5.5451975051975001E-2</v>
+      </c>
+      <c r="M12">
+        <v>0.117564102564102</v>
+      </c>
+      <c r="N12">
+        <v>0.13616689280868299</v>
+      </c>
+      <c r="O12">
+        <v>0.23799350498724101</v>
+      </c>
+      <c r="P12">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.15652199999999999</v>
+      </c>
+      <c r="R12">
+        <v>6.9818496110630998E-2</v>
+      </c>
+      <c r="S12">
+        <v>9.95588235294117E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2.7073015873015902E-2</v>
+      </c>
+      <c r="C13">
+        <v>7.0140350877192906E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.31651376146789E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.30964923076923001</v>
+      </c>
+      <c r="F13">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G13">
+        <v>0.119641025641025</v>
+      </c>
+      <c r="H13">
+        <v>7.4007352941176399E-2</v>
+      </c>
+      <c r="I13">
+        <v>3.3092407175636197E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.12262762762762699</v>
+      </c>
+      <c r="K13">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L13">
+        <v>8.3439501039500902E-2</v>
+      </c>
+      <c r="M13">
+        <v>9.8025641025641E-2</v>
+      </c>
+      <c r="N13">
         <v>0.14310040705563001</v>
       </c>
-      <c r="O11">
-        <v>0.229881697981906</v>
-      </c>
-      <c r="P11">
-        <v>2.9524999999999899E-2</v>
-      </c>
-      <c r="Q11">
-        <v>0.16494200000000001</v>
-      </c>
-      <c r="R11">
-        <v>2.45548833189283E-2</v>
-      </c>
-      <c r="S11">
-        <v>2.3161764705882298E-2</v>
+      <c r="O13">
+        <v>0.19807933194154401</v>
+      </c>
+      <c r="P13">
+        <v>2.70249999999999E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.16206599999999999</v>
+      </c>
+      <c r="R13">
+        <v>3.6447709593776897E-2</v>
+      </c>
+      <c r="S13">
+        <v>6.1985294117647E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3.7780952380952401E-2</v>
+      </c>
+      <c r="C14">
+        <v>4.6157894736842099E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.5206422018348499E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.30964923076923001</v>
+      </c>
+      <c r="F14">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G14">
+        <v>0.15861538461538399</v>
+      </c>
+      <c r="H14">
+        <v>7.4007352941176399E-2</v>
+      </c>
+      <c r="I14">
+        <v>2.4952718676122899E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.16498498498498401</v>
+      </c>
+      <c r="K14">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L14">
+        <v>5.5698128898128897E-2</v>
+      </c>
+      <c r="M14">
+        <v>0.137102564102564</v>
+      </c>
+      <c r="N14">
+        <v>0.116729986431478</v>
+      </c>
+      <c r="O14">
+        <v>0.213347251217814</v>
+      </c>
+      <c r="P14">
+        <v>5.4675000000000001E-2</v>
+      </c>
+      <c r="Q14">
+        <v>0.163796</v>
+      </c>
+      <c r="R14">
+        <v>4.8340535868625703E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.50367647058823E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2.3638095238095201E-2</v>
+      </c>
+      <c r="C15">
+        <v>5.9719298245613998E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.3663990825688099E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.05553846153846E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G15">
+        <v>0.14974358974358901</v>
+      </c>
+      <c r="H15">
+        <v>8.5845588235293993E-2</v>
+      </c>
+      <c r="I15">
+        <v>3.5420664719788497E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.13656156156156099</v>
+      </c>
+      <c r="K15">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L15">
+        <v>8.3162577962577894E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.166160256410256</v>
+      </c>
+      <c r="N15">
+        <v>0.114911804613297</v>
+      </c>
+      <c r="O15">
+        <v>0.203968916724657</v>
+      </c>
+      <c r="P15">
+        <v>2.76499999999999E-2</v>
+      </c>
+      <c r="Q15">
+        <v>0.16994399999999901</v>
+      </c>
+      <c r="R15">
+        <v>5.8694900605012902E-2</v>
+      </c>
+      <c r="S15">
+        <v>4.25735294117646E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2.5961904761904801E-2</v>
+      </c>
+      <c r="C16">
+        <v>8.7842105263157902E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.0372706422018201E-2</v>
+      </c>
+      <c r="E16">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F16">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G16">
+        <v>0.14164102564102499</v>
+      </c>
+      <c r="H16">
+        <v>9.1176470588235303E-2</v>
+      </c>
+      <c r="I16">
+        <v>3.7429078014184297E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.15160660660660599</v>
+      </c>
+      <c r="K16">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L16">
+        <v>5.4928898128898097E-2</v>
+      </c>
+      <c r="M16">
+        <v>9.7692307692307606E-2</v>
+      </c>
+      <c r="N16">
+        <v>0.12320895522388001</v>
+      </c>
+      <c r="O16">
+        <v>0.225748086290883</v>
+      </c>
+      <c r="P16">
+        <v>5.4675000000000001E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0.164442</v>
+      </c>
+      <c r="R16">
+        <v>3.7216940363007697E-2</v>
+      </c>
+      <c r="S16">
+        <v>4.19485294117646E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3.7780952380952401E-2</v>
+      </c>
+      <c r="C17">
+        <v>5.3105263157894697E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.8830275229357801E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.30480615384615301</v>
+      </c>
+      <c r="F17">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G17">
+        <v>0.13507692307692301</v>
+      </c>
+      <c r="H17">
+        <v>7.9926470588235293E-2</v>
+      </c>
+      <c r="I17">
+        <v>2.6041927409261499E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.163318318318318</v>
+      </c>
+      <c r="K17">
+        <v>1.45153846153846E-2</v>
+      </c>
+      <c r="L17">
+        <v>0.13550686070685999</v>
+      </c>
+      <c r="M17">
+        <v>0.117397435897435</v>
+      </c>
+      <c r="N17">
+        <v>0.13525780189959299</v>
+      </c>
+      <c r="O17">
+        <v>0.23083739271630699</v>
+      </c>
+      <c r="P17">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="Q17">
+        <v>0.16523399999999899</v>
+      </c>
+      <c r="R17">
+        <v>1.57389801210026E-2</v>
+      </c>
+      <c r="S17">
+        <v>6.0735294117646998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3.9498412698412602E-2</v>
+      </c>
+      <c r="C18">
+        <v>6.0052631578947302E-2</v>
+      </c>
+      <c r="D18">
+        <v>3.0372706422018201E-2</v>
+      </c>
+      <c r="E18">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G18">
+        <v>0.12194871794871701</v>
+      </c>
+      <c r="H18">
+        <v>7.4301470588235205E-2</v>
+      </c>
+      <c r="I18">
+        <v>2.7644625225976899E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.138228228228228</v>
+      </c>
+      <c r="K18">
+        <v>1.8475384615384598E-2</v>
+      </c>
+      <c r="L18">
+        <v>5.56058212058212E-2</v>
+      </c>
+      <c r="M18">
+        <v>0.193551282051282</v>
+      </c>
+      <c r="N18">
+        <v>0.14400949796472101</v>
+      </c>
+      <c r="O18">
+        <v>0.22972628160519501</v>
+      </c>
+      <c r="P18">
+        <v>6.7249999999999893E-2</v>
+      </c>
+      <c r="Q18">
+        <v>0.168213999999999</v>
+      </c>
+      <c r="R18">
+        <v>5.8694900605012902E-2</v>
+      </c>
+      <c r="S18">
+        <v>6.1360294117646999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2.8184126984126999E-2</v>
+      </c>
+      <c r="C19">
+        <v>4.2684210526315797E-2</v>
+      </c>
+      <c r="D19">
+        <v>2.5206422018348499E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.30964923076923001</v>
+      </c>
+      <c r="F19">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G19">
+        <v>0.16517948717948699</v>
+      </c>
+      <c r="H19">
+        <v>7.4301470588235205E-2</v>
+      </c>
+      <c r="I19">
+        <v>3.02506605479071E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.177807807807807</v>
+      </c>
+      <c r="K19">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L19">
+        <v>8.1808731808731702E-2</v>
+      </c>
+      <c r="M19">
+        <v>0.15597435897435899</v>
+      </c>
+      <c r="N19">
+        <v>0.129233378561736</v>
+      </c>
+      <c r="O19">
+        <v>0.22670378102528399</v>
+      </c>
+      <c r="P19">
+        <v>2.8274999999999901E-2</v>
+      </c>
+      <c r="Q19">
+        <v>0.15804399999999899</v>
+      </c>
+      <c r="R19">
+        <v>2.6862575626620599E-2</v>
+      </c>
+      <c r="S19">
+        <v>8.1397058823529406E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3.3234920634920603E-2</v>
+      </c>
+      <c r="C20">
+        <v>3.9543859649122798E-2</v>
+      </c>
+      <c r="D20">
+        <v>4.1330275229357699E-2</v>
+      </c>
+      <c r="E20">
+        <v>3.6295384615384597E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G20">
+        <v>0.13507692307692301</v>
+      </c>
+      <c r="H20">
+        <v>0.119301470588235</v>
+      </c>
+      <c r="I20">
+        <v>2.5166527603949301E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.13656156156156099</v>
+      </c>
+      <c r="K20">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L20">
+        <v>2.95259875259874E-2</v>
+      </c>
+      <c r="M20">
+        <v>0.107711538461538</v>
+      </c>
+      <c r="N20">
+        <v>0.13616689280868299</v>
+      </c>
+      <c r="O20">
+        <v>0.23497100440732999</v>
+      </c>
+      <c r="P20">
+        <v>4.9324999999999897E-2</v>
+      </c>
+      <c r="Q20">
+        <v>0.162962</v>
+      </c>
+      <c r="R20">
+        <v>7.0587726879861701E-2</v>
+      </c>
+      <c r="S20">
+        <v>8.0147058823529405E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2.5355555555555499E-2</v>
+      </c>
+      <c r="C21">
+        <v>4.9631578947368402E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.64564220183485E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.8475384615384598E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G21">
+        <v>0.143179487179487</v>
+      </c>
+      <c r="H21">
+        <v>0.110110294117647</v>
+      </c>
+      <c r="I21">
+        <v>4.0590668891670102E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.138228228228228</v>
+      </c>
+      <c r="K21">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L21">
+        <v>8.2854885654885593E-2</v>
+      </c>
+      <c r="M21">
+        <v>0.12608333333333299</v>
+      </c>
+      <c r="N21">
+        <v>0.12968792401628201</v>
+      </c>
+      <c r="O21">
+        <v>0.20508002783576801</v>
+      </c>
+      <c r="P21">
+        <v>4.2724999999999999E-2</v>
+      </c>
+      <c r="Q21">
+        <v>0.16613</v>
+      </c>
+      <c r="R21">
+        <v>6.9818496110630998E-2</v>
+      </c>
+      <c r="S21">
+        <v>4.25735294117646E-2</v>
       </c>
     </row>
   </sheetData>
